--- a/biology/Botanique/Sparrmannia_ricinocarpa/Sparrmannia_ricinocarpa.xlsx
+++ b/biology/Botanique/Sparrmannia_ricinocarpa/Sparrmannia_ricinocarpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sparrmannia ricinocarpa est une espèce de la famille des Malvaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants[1] : Afrique du Sud, Burundi, Cameroun, Kenya, La Réunion, Madagascar, Malawi, Mozambique, Nigeria, Ouganda, République démocratique du Congo, Tanzanie, Zimbabwe, Éthiopie.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants : Afrique du Sud, Burundi, Cameroun, Kenya, La Réunion, Madagascar, Malawi, Mozambique, Nigeria, Ouganda, République démocratique du Congo, Tanzanie, Zimbabwe, Éthiopie.
 </t>
         </is>
       </c>
@@ -568,9 +584,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (8 mai 2024)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (8 mai 2024) :
 Sparrmannia ricinocarpa var. macrocarpa (Ulbr.) Weim.
 Sparrmannia ricinocarpa var. ricinocarpa</t>
         </is>
@@ -600,11 +618,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Sparrmannia ricinocarpa (Eckl. &amp; Zeyh.) Kuntze[2].
-L'espèce a été initialement classée dans le genre Urena sous le basionyme Urena ricinocarpa Eckl. &amp; Zeyh.[2].
-Sparrmannia ricinocarpa a pour synonymes[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Sparrmannia ricinocarpa (Eckl. &amp; Zeyh.) Kuntze.
+L'espèce a été initialement classée dans le genre Urena sous le basionyme Urena ricinocarpa Eckl. &amp; Zeyh..
+Sparrmannia ricinocarpa a pour synonymes :
 Sparmannia palmata E.Mey.
 Sparmannia palmata E.Mey. ex J.Presl
 Sparmannia ricinocarpa (Eckl. &amp; Zeyh.) Kuntze
